--- a/Dashboards-test/E8.xlsx
+++ b/Dashboards-test/E8.xlsx
@@ -26,7 +26,7 @@
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
     <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$24</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$24</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$24</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -61,24 +61,24 @@
     <x:t>Rhykon</x:t>
   </x:si>
   <x:si>
+    <x:t>ReNoobMe</x:t>
+  </x:si>
+  <x:si>
     <x:t>Try harder</x:t>
   </x:si>
   <x:si>
-    <x:t>ReNoobMe</x:t>
+    <x:t>jiggler</x:t>
   </x:si>
   <x:si>
     <x:t>Platform</x:t>
   </x:si>
   <x:si>
-    <x:t>jiggler</x:t>
+    <x:t>-Pumpkin-</x:t>
   </x:si>
   <x:si>
     <x:t>OwO OwO</x:t>
   </x:si>
   <x:si>
-    <x:t>-Pumpkin-</x:t>
-  </x:si>
-  <x:si>
     <x:t>cube</x:t>
   </x:si>
   <x:si>
@@ -127,7 +127,7 @@
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
-    <x:t>6,4 (4964/775)</x:t>
+    <x:t>6,3 (5128/814)</x:t>
   </x:si>
   <x:si>
     <x:t>- (/)</x:t>
@@ -163,7 +163,13 @@
     <x:t>4,4 (382/87)</x:t>
   </x:si>
   <x:si>
-    <x:t>4,9 (2477/501)</x:t>
+    <x:t>1,0 (4/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,6 (160/35)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,6 (3455/748)</x:t>
   </x:si>
   <x:si>
     <x:t>4,8 (53/11)</x:t>
@@ -196,7 +202,49 @@
     <x:t>5,2 (182/35)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,8 (2980/777)</x:t>
+    <x:t>3,7 (388/105)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,2 (590/142)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,8 (2569/682)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (285/72)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4 (342/101)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (460/114)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,9 (718/182)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (182/66)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,4 (276/43)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (26/10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (26/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (36/14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (27/14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,7 (191/51)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,7 (3266/871)</x:t>
   </x:si>
   <x:si>
     <x:t>4,1 (731/178)</x:t>
@@ -226,37 +274,13 @@
     <x:t>4,8 (331/69)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,8 (2351/617)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,0 (285/72)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4 (342/101)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,0 (460/114)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,9 (718/182)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,8 (182/66)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,4 (276/43)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (26/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (26/15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (36/14)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4 (1844/547)</x:t>
+    <x:t>2,1 (76/36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,6 (210/58)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,3 (2157/646)</x:t>
   </x:si>
   <x:si>
     <x:t>2,8 (85/30)</x:t>
@@ -289,7 +313,13 @@
     <x:t>4,0 (121/30)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,3 (3320/1010)</x:t>
+    <x:t>3,1 (22/7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (291/92)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,3 (3570/1085)</x:t>
   </x:si>
   <x:si>
     <x:t>3,5 (258/73)</x:t>
@@ -322,7 +352,13 @@
     <x:t>3,1 (342/110)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,9 (4775/1620)</x:t>
+    <x:t>3,4 (240/70)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (10/5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (6961/2312)</x:t>
   </x:si>
   <x:si>
     <x:t>2,5 (483/191)</x:t>
@@ -355,6 +391,9 @@
     <x:t>3,8 (185/49)</x:t>
   </x:si>
   <x:si>
+    <x:t>3,2 (2186/692)</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,6 (149/58)</x:t>
   </x:si>
   <x:si>
@@ -376,7 +415,103 @@
     <x:t>0,8 (6/8)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,5 (592/234)</x:t>
+    <x:t>2,5 (558/220)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,0 (5/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,2 (1/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (304/112)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (150/67)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (75/30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,0 (12/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (1860/765)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (219/121)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (203/84)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (102/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,5 (281/81)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (163/55)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (384/146)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,7 (144/39)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (84/56)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (92/52)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (25/14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (125/61)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (38/24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (775/320)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (82/27)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (42/20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (156/49)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (149/54)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (3/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (64/37)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (45/29)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (34/19)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,8 (41/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (143/72)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (16/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (864/377)</x:t>
   </x:si>
   <x:si>
     <x:t>1,1 (63/56)</x:t>
@@ -400,85 +535,13 @@
     <x:t>2,9 (218/76)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,5 (616/244)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (82/27)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (42/20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,2 (156/49)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,8 (149/54)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (3/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (64/37)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (45/29)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (34/19)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,8 (41/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5 (1697/680)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (219/121)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (203/84)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,2 (102/32)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,5 (281/81)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (163/55)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (384/146)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,7 (144/39)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (84/56)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (92/52)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (25/14)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5 (471/189)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,0 (5/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,2 (1/4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7 (304/112)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (150/67)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (480/223)</x:t>
+    <x:t>1,5 (154/104)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (118/39)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (586/282)</x:t>
   </x:si>
   <x:si>
     <x:t>2,8 (86/31)</x:t>
@@ -502,10 +565,10 @@
     <x:t>2,8 (70/25)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,0 (4/4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (1062/587)</x:t>
+    <x:t>1,8 (106/59)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (1310/764)</x:t>
   </x:si>
   <x:si>
     <x:t>1,5 (175/113)</x:t>
@@ -524,6 +587,12 @@
   </x:si>
   <x:si>
     <x:t>1,8 (161/92)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (246/171)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,3 (2/6)</x:t>
   </x:si>
   <x:si>
     <x:t>1,3 (4/3)</x:t>
@@ -1006,10 +1075,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>20713.9632897726</x:v>
+        <x:v>18005.6027868589</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>1520596.09979167</x:v>
+        <x:v>1526815.33983333</x:v>
       </x:c>
       <x:c r="E2" s="16" t="s"/>
       <x:c r="F2" s="16" t="n">
@@ -1044,6 +1113,12 @@
       </x:c>
       <x:c r="P2" s="16" t="n">
         <x:v>14205.866104167</x:v>
+      </x:c>
+      <x:c r="Q2" s="16" t="n">
+        <x:v>80.3528333334252</x:v>
+      </x:c>
+      <x:c r="R2" s="16" t="n">
+        <x:v>6138.88720833324</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -1051,44 +1126,50 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>16662.9861041666</x:v>
+        <x:v>15457.8258942309</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>1151988.05522917</x:v>
+        <x:v>753498.544333334</x:v>
       </x:c>
       <x:c r="E3" s="16" t="s"/>
       <x:c r="F3" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G3" s="16" t="n">
-        <x:v>50553.3912083331</x:v>
+        <x:v>13132.1803749998</x:v>
       </x:c>
       <x:c r="H3" s="16" t="n">
-        <x:v>9881.55966666644</x:v>
+        <x:v>40972.1502500006</x:v>
       </x:c>
       <x:c r="I3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>30041.4332500006</x:v>
       </x:c>
       <x:c r="J3" s="16" t="n">
-        <x:v>16847.3315625</x:v>
+        <x:v>20844.3112083336</x:v>
       </x:c>
       <x:c r="K3" s="16" t="n">
-        <x:v>46108.1544166662</x:v>
+        <x:v>4222.64866666659</x:v>
       </x:c>
       <x:c r="L3" s="16" t="n">
-        <x:v>8364.06458333344</x:v>
+        <x:v>11270.096666667</x:v>
       </x:c>
       <x:c r="M3" s="16" t="n">
-        <x:v>15707.2514583333</x:v>
+        <x:v>3216.05283333326</x:v>
       </x:c>
       <x:c r="N3" s="16" t="n">
-        <x:v>9142.5770208335</x:v>
+        <x:v>5537.04250000021</x:v>
       </x:c>
       <x:c r="O3" s="16" t="n">
-        <x:v>4606.94731249986</x:v>
+        <x:v>9901.61779166665</x:v>
       </x:c>
       <x:c r="P3" s="16" t="n">
-        <x:v>22081.569916667</x:v>
+        <x:v>6578.25266666652</x:v>
+      </x:c>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>55235.9504166669</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1096,44 +1177,50 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>13246.8896553032</x:v>
+        <x:v>14829.6799214743</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>698262.593916667</x:v>
+        <x:v>1161481.0470625</x:v>
       </x:c>
       <x:c r="E4" s="16" t="s"/>
       <x:c r="F4" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G4" s="16" t="n">
-        <x:v>13132.1803749998</x:v>
+        <x:v>50553.3912083331</x:v>
       </x:c>
       <x:c r="H4" s="16" t="n">
-        <x:v>40972.1502500006</x:v>
+        <x:v>9881.55966666644</x:v>
       </x:c>
       <x:c r="I4" s="16" t="n">
-        <x:v>30041.4332500006</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J4" s="16" t="n">
-        <x:v>20844.3112083336</x:v>
+        <x:v>16847.3315625</x:v>
       </x:c>
       <x:c r="K4" s="16" t="n">
-        <x:v>4222.64866666659</x:v>
+        <x:v>46108.1544166662</x:v>
       </x:c>
       <x:c r="L4" s="16" t="n">
-        <x:v>11270.096666667</x:v>
+        <x:v>8364.06458333344</x:v>
       </x:c>
       <x:c r="M4" s="16" t="n">
-        <x:v>3216.05283333326</x:v>
+        <x:v>15707.2514583333</x:v>
       </x:c>
       <x:c r="N4" s="16" t="n">
-        <x:v>5537.04250000021</x:v>
+        <x:v>9142.5770208335</x:v>
       </x:c>
       <x:c r="O4" s="16" t="n">
-        <x:v>9901.61779166665</x:v>
+        <x:v>4606.94731249986</x:v>
       </x:c>
       <x:c r="P4" s="16" t="n">
-        <x:v>6578.25266666652</x:v>
+        <x:v>22081.569916667</x:v>
+      </x:c>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>2668.77624999988</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
+        <x:v>6824.21558333375</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -1141,44 +1228,50 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>11120.9497859849</x:v>
+        <x:v>10139.8063653846</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>757817.394854167</x:v>
+        <x:v>1072376.478</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s"/>
       <x:c r="F5" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G5" s="16" t="n">
-        <x:v>17258.4833125001</x:v>
+        <x:v>13229.3156666667</x:v>
       </x:c>
       <x:c r="H5" s="16" t="n">
-        <x:v>16372.1801249998</x:v>
+        <x:v>19905.7979999996</x:v>
       </x:c>
       <x:c r="I5" s="16" t="n">
-        <x:v>21512.7460833334</x:v>
+        <x:v>9628.09658333333</x:v>
       </x:c>
       <x:c r="J5" s="16" t="n">
-        <x:v>34918.5286250007</x:v>
+        <x:v>5519.92914583313</x:v>
       </x:c>
       <x:c r="K5" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>12948.2731041671</x:v>
       </x:c>
       <x:c r="L5" s="16" t="n">
-        <x:v>5473.70208333328</x:v>
+        <x:v>5817.69393750024</x:v>
       </x:c>
       <x:c r="M5" s="16" t="n">
-        <x:v>22303.6803125</x:v>
+        <x:v>19813.7289791664</x:v>
       </x:c>
       <x:c r="N5" s="16" t="n">
-        <x:v>1061.01650000003</x:v>
+        <x:v>8552.74654166703</x:v>
       </x:c>
       <x:c r="O5" s="16" t="n">
-        <x:v>2054.34264583339</x:v>
+        <x:v>11579.0931666668</x:v>
       </x:c>
       <x:c r="P5" s="16" t="n">
-        <x:v>1375.76795833337</x:v>
+        <x:v>11829.2425416664</x:v>
+      </x:c>
+      <x:c r="Q5" s="16" t="n">
+        <x:v>12709.2835833328</x:v>
+      </x:c>
+      <x:c r="R5" s="16" t="n">
+        <x:v>284.281500000041</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:146">
@@ -1186,44 +1279,50 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>10802.1743333333</x:v>
+        <x:v>10044.7151330129</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>1059382.91291666</x:v>
+        <x:v>766068.2439375</x:v>
       </x:c>
       <x:c r="E6" s="16" t="s"/>
       <x:c r="F6" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G6" s="16" t="n">
-        <x:v>13229.3156666667</x:v>
+        <x:v>17258.4833125001</x:v>
       </x:c>
       <x:c r="H6" s="16" t="n">
-        <x:v>19905.7979999996</x:v>
+        <x:v>16372.1801249998</x:v>
       </x:c>
       <x:c r="I6" s="16" t="n">
-        <x:v>9628.09658333333</x:v>
+        <x:v>21512.7460833334</x:v>
       </x:c>
       <x:c r="J6" s="16" t="n">
-        <x:v>5519.92914583313</x:v>
+        <x:v>34918.5286250007</x:v>
       </x:c>
       <x:c r="K6" s="16" t="n">
-        <x:v>12948.2731041671</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L6" s="16" t="n">
-        <x:v>5817.69393750024</x:v>
+        <x:v>5473.70208333328</x:v>
       </x:c>
       <x:c r="M6" s="16" t="n">
-        <x:v>19813.7289791664</x:v>
+        <x:v>22303.6803125</x:v>
       </x:c>
       <x:c r="N6" s="16" t="n">
-        <x:v>8552.74654166703</x:v>
+        <x:v>1061.01650000003</x:v>
       </x:c>
       <x:c r="O6" s="16" t="n">
-        <x:v>11579.0931666668</x:v>
+        <x:v>2054.34264583339</x:v>
       </x:c>
       <x:c r="P6" s="16" t="n">
-        <x:v>11829.2425416664</x:v>
+        <x:v>1375.76795833337</x:v>
+      </x:c>
+      <x:c r="Q6" s="16" t="n">
+        <x:v>957.889583333395</x:v>
+      </x:c>
+      <x:c r="R6" s="16" t="n">
+        <x:v>7292.9595</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -1231,44 +1330,50 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>7859.79144128801</x:v>
+        <x:v>8722.7899198716</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>769510.744625002</x:v>
+        <x:v>1402852.7948125</x:v>
       </x:c>
       <x:c r="E7" s="16" t="s"/>
       <x:c r="F7" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G7" s="16" t="n">
-        <x:v>15561.6813333335</x:v>
+        <x:v>1633.75383333326</x:v>
       </x:c>
       <x:c r="H7" s="16" t="n">
-        <x:v>7795.63829166675</x:v>
+        <x:v>17004.5644999994</x:v>
       </x:c>
       <x:c r="I7" s="16" t="n">
-        <x:v>3783.85220833332</x:v>
+        <x:v>2654.64775</x:v>
       </x:c>
       <x:c r="J7" s="16" t="n">
-        <x:v>12595.3690833335</x:v>
+        <x:v>7703.22541666683</x:v>
       </x:c>
       <x:c r="K7" s="16" t="n">
-        <x:v>4212.61727083323</x:v>
+        <x:v>7309.72266666684</x:v>
       </x:c>
       <x:c r="L7" s="16" t="n">
-        <x:v>23205.6735833343</x:v>
+        <x:v>12305.3984583332</x:v>
       </x:c>
       <x:c r="M7" s="16" t="n">
-        <x:v>12131.9497916666</x:v>
+        <x:v>15234.3296249995</x:v>
       </x:c>
       <x:c r="N7" s="16" t="n">
-        <x:v>2703.7265416669</x:v>
+        <x:v>10259.3585416663</x:v>
       </x:c>
       <x:c r="O7" s="16" t="n">
-        <x:v>3201.73662500002</x:v>
+        <x:v>6283.64699999988</x:v>
       </x:c>
       <x:c r="P7" s="16" t="n">
-        <x:v>1265.46112500003</x:v>
+        <x:v>5721.77825000021</x:v>
+      </x:c>
+      <x:c r="Q7" s="16" t="n">
+        <x:v>11215.2320416663</x:v>
+      </x:c>
+      <x:c r="R7" s="16" t="n">
+        <x:v>16070.6108749991</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1276,44 +1381,50 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>7828.22054924231</x:v>
+        <x:v>7046.13864903858</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>1375566.95189583</x:v>
+        <x:v>774652.841208335</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s"/>
       <x:c r="F8" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G8" s="16" t="n">
-        <x:v>1633.75383333326</x:v>
+        <x:v>15561.6813333335</x:v>
       </x:c>
       <x:c r="H8" s="16" t="n">
-        <x:v>17004.5644999994</x:v>
+        <x:v>7795.63829166675</x:v>
       </x:c>
       <x:c r="I8" s="16" t="n">
-        <x:v>2654.64775</x:v>
+        <x:v>3783.85220833332</x:v>
       </x:c>
       <x:c r="J8" s="16" t="n">
-        <x:v>7703.22541666683</x:v>
+        <x:v>12595.3690833335</x:v>
       </x:c>
       <x:c r="K8" s="16" t="n">
-        <x:v>7309.72266666684</x:v>
+        <x:v>4212.61727083323</x:v>
       </x:c>
       <x:c r="L8" s="16" t="n">
-        <x:v>12305.3984583332</x:v>
+        <x:v>23205.6735833343</x:v>
       </x:c>
       <x:c r="M8" s="16" t="n">
-        <x:v>15234.3296249995</x:v>
+        <x:v>12131.9497916666</x:v>
       </x:c>
       <x:c r="N8" s="16" t="n">
-        <x:v>10259.3585416663</x:v>
+        <x:v>2703.7265416669</x:v>
       </x:c>
       <x:c r="O8" s="16" t="n">
-        <x:v>6283.64699999988</x:v>
+        <x:v>3201.73662500002</x:v>
       </x:c>
       <x:c r="P8" s="16" t="n">
-        <x:v>5721.77825000021</x:v>
+        <x:v>1265.46112500003</x:v>
+      </x:c>
+      <x:c r="Q8" s="16" t="n">
+        <x:v>4230.13233333314</x:v>
+      </x:c>
+      <x:c r="R8" s="16" t="n">
+        <x:v>911.964250000194</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1321,10 +1432,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>6636.06642424252</x:v>
+        <x:v>6365.78333333337</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>1622538.97372917</x:v>
+        <x:v>1632297.42639583</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s"/>
       <x:c r="F9" s="16" t="n">
@@ -1359,6 +1470,12 @@
       </x:c>
       <x:c r="P9" s="16" t="n">
         <x:v>4617.57945833355</x:v>
+      </x:c>
+      <x:c r="Q9" s="16" t="n">
+        <x:v>1013.50137499976</x:v>
+      </x:c>
+      <x:c r="R9" s="16" t="n">
+        <x:v>8744.95129166637</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
@@ -1366,10 +1483,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="15" t="n">
-        <x:v>3102.66554166668</x:v>
+        <x:v>3203.61104807691</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
-        <x:v>324329.787375</x:v>
+        <x:v>331847.410041667</x:v>
       </x:c>
       <x:c r="E10" s="16" t="s"/>
       <x:c r="F10" s="16" t="n">
@@ -1404,6 +1521,12 @@
       </x:c>
       <x:c r="P10" s="16" t="n">
         <x:v>4202.10887499998</x:v>
+      </x:c>
+      <x:c r="Q10" s="16" t="n">
+        <x:v>7457.09033333301</x:v>
+      </x:c>
+      <x:c r="R10" s="16" t="n">
+        <x:v>60.5323333333945</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:146">
@@ -1411,10 +1534,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>2880.57213825757</x:v>
+        <x:v>3187.48025480768</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>274666.3531875</x:v>
+        <x:v>284417.302979166</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s"/>
       <x:c r="F11" s="16" t="n">
@@ -1449,6 +1572,12 @@
       </x:c>
       <x:c r="P11" s="16" t="n">
         <x:v>14758.0725208332</x:v>
+      </x:c>
+      <x:c r="Q11" s="16" t="n">
+        <x:v>6728.1862916667</x:v>
+      </x:c>
+      <x:c r="R11" s="16" t="n">
+        <x:v>3022.76349999994</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:146">
@@ -1456,10 +1585,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="15" t="n">
-        <x:v>2790.95617803033</x:v>
+        <x:v>2667.98532371798</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>384081.705354165</x:v>
+        <x:v>388064.996604166</x:v>
       </x:c>
       <x:c r="E12" s="16" t="s"/>
       <x:c r="F12" s="16" t="n">
@@ -1494,6 +1623,12 @@
       </x:c>
       <x:c r="P12" s="16" t="n">
         <x:v>6123.07616666669</x:v>
+      </x:c>
+      <x:c r="Q12" s="16" t="n">
+        <x:v>3588.08525000012</x:v>
+      </x:c>
+      <x:c r="R12" s="16" t="n">
+        <x:v>395.206000000064</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
@@ -1501,10 +1636,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="15" t="n">
-        <x:v>2105.79365530302</x:v>
+        <x:v>2165.32436538461</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
-        <x:v>445739.483041667</x:v>
+        <x:v>450724.969583334</x:v>
       </x:c>
       <x:c r="E13" s="16" t="s"/>
       <x:c r="F13" s="16" t="n">
@@ -1540,17 +1675,23 @@
       <x:c r="P13" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AC13" s="17" t="s"/>
+      <x:c r="Q13" s="16" t="n">
+        <x:v>4478.90800000005</x:v>
+      </x:c>
+      <x:c r="R13" s="16" t="n">
+        <x:v>506.578541666677</x:v>
+      </x:c>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="15" t="n">
-        <x:v>2024.49844318182</x:v>
+        <x:v>1956.65473878205</x:v>
       </x:c>
       <x:c r="D14" s="15" t="n">
-        <x:v>495411.616249997</x:v>
+        <x:v>498578.644979164</x:v>
       </x:c>
       <x:c r="E14" s="16" t="s"/>
       <x:c r="F14" s="16" t="n">
@@ -1586,17 +1727,23 @@
       <x:c r="P14" s="16" t="n">
         <x:v>61.071333333326</x:v>
       </x:c>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+      <x:c r="Q14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R14" s="16" t="n">
+        <x:v>3167.02872916666</x:v>
+      </x:c>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="15" t="n">
-        <x:v>337.633882575764</x:v>
+        <x:v>285.690208333339</x:v>
       </x:c>
       <x:c r="D15" s="15" t="n">
         <x:v>257645.3985</x:v>
@@ -1633,6 +1780,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R15" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1641,7 +1794,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="15" t="n">
-        <x:v>4.82892424242825</x:v>
+        <x:v>4.08601282051621</x:v>
       </x:c>
       <x:c r="D16" s="15" t="n">
         <x:v>665998.712499997</x:v>
@@ -1678,6 +1831,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R16" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1703,6 +1862,8 @@
       <x:c r="N17" s="16" t="s"/>
       <x:c r="O17" s="16" t="s"/>
       <x:c r="P17" s="16" t="s"/>
+      <x:c r="Q17" s="16" t="s"/>
+      <x:c r="R17" s="16" t="s"/>
     </x:row>
     <x:row r="18" spans="1:146">
       <x:c r="B18" s="14" t="s">
@@ -1726,6 +1887,8 @@
       <x:c r="N18" s="16" t="s"/>
       <x:c r="O18" s="16" t="s"/>
       <x:c r="P18" s="16" t="s"/>
+      <x:c r="Q18" s="16" t="s"/>
+      <x:c r="R18" s="16" t="s"/>
     </x:row>
     <x:row r="19" spans="1:146">
       <x:c r="B19" s="14" t="s">
@@ -1749,6 +1912,8 @@
       <x:c r="N19" s="16" t="s"/>
       <x:c r="O19" s="16" t="s"/>
       <x:c r="P19" s="16" t="s"/>
+      <x:c r="Q19" s="16" t="s"/>
+      <x:c r="R19" s="16" t="s"/>
     </x:row>
     <x:row r="20" spans="1:146">
       <x:c r="B20" s="14" t="s">
@@ -1772,6 +1937,8 @@
       <x:c r="N20" s="16" t="s"/>
       <x:c r="O20" s="16" t="s"/>
       <x:c r="P20" s="16" t="s"/>
+      <x:c r="Q20" s="16" t="s"/>
+      <x:c r="R20" s="16" t="s"/>
     </x:row>
     <x:row r="21" spans="1:146">
       <x:c r="B21" s="14" t="s">
@@ -1815,6 +1982,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P21" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q21" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R21" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1840,6 +2013,8 @@
       <x:c r="N22" s="16" t="s"/>
       <x:c r="O22" s="16" t="s"/>
       <x:c r="P22" s="16" t="s"/>
+      <x:c r="Q22" s="16" t="s"/>
+      <x:c r="R22" s="16" t="s"/>
     </x:row>
     <x:row r="23" spans="1:146">
       <x:c r="B23" s="14" t="s">
@@ -1863,6 +2038,8 @@
       <x:c r="N23" s="16" t="s"/>
       <x:c r="O23" s="16" t="s"/>
       <x:c r="P23" s="16" t="s"/>
+      <x:c r="Q23" s="16" t="s"/>
+      <x:c r="R23" s="16" t="s"/>
     </x:row>
   </x:sheetData>
   <x:dataConsolidate/>
@@ -1898,7 +2075,8 @@
     <x:col min="12" max="13" width="15.980625" style="0" customWidth="1"/>
     <x:col min="14" max="14" width="14.700625" style="0" customWidth="1"/>
     <x:col min="15" max="15" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="16" max="17" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="17.270625" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="15.980625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -1996,18 +2174,18 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="P2" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D3" s="19" t="s">
         <x:v>27</x:v>
@@ -2016,48 +2194,48 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F3" s="19" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G3" s="19" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H3" s="19" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I3" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J3" s="19" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="K3" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L3" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M3" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N3" s="19" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="O3" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="P3" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
         <x:v>27</x:v>
@@ -2066,48 +2244,48 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="19" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G4" s="19" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J4" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
       <x:c r="B5" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
         <x:v>27</x:v>
@@ -2116,40 +2294,40 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>60</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>64</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>67</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
@@ -2157,7 +2335,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>69</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
         <x:v>27</x:v>
@@ -2166,48 +2344,48 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>77</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
       <x:c r="B7" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
         <x:v>27</x:v>
@@ -2216,48 +2394,48 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>83</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>86</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>89</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
       <x:c r="B8" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
         <x:v>27</x:v>
@@ -2266,40 +2444,40 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>92</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>93</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>95</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>98</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
@@ -2307,7 +2485,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>102</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
         <x:v>27</x:v>
@@ -2316,25 +2494,25 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>103</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>106</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
         <x:v>28</x:v>
@@ -2346,18 +2524,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>109</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
         <x:v>27</x:v>
@@ -2369,45 +2547,45 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>110</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>112</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>113</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>116</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="B11" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>117</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
         <x:v>27</x:v>
@@ -2416,48 +2594,48 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>123</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>125</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
       <x:c r="B12" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>127</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
         <x:v>27</x:v>
@@ -2466,48 +2644,48 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>128</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>131</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>133</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>135</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>136</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
       <x:c r="B13" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>138</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
         <x:v>27</x:v>
@@ -2519,37 +2697,37 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>139</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>141</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>142</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
@@ -2557,7 +2735,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>143</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
         <x:v>27</x:v>
@@ -2566,40 +2744,40 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>148</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>149</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
@@ -2607,7 +2785,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>152</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
         <x:v>27</x:v>
@@ -2619,37 +2797,37 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>153</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>154</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>156</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>157</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>158</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
@@ -2657,7 +2835,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>159</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
         <x:v>27</x:v>
@@ -2666,7 +2844,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>159</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
         <x:v>28</x:v>
@@ -2696,10 +2874,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
@@ -2946,10 +3124,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q21" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:36">
